--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Alsace/Liste_des_espèces_végétales_protégées_en_Alsace.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Alsace/Liste_des_espèces_végétales_protégées_en_Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Alsace</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La liste des espèces protégées en Alsace est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Alsace, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 28 juin 1993[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La liste des espèces protégées en Alsace est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Alsace, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 28 juin 1993.
 Adonis aestivalis L., Adonis d’été
 Adonis flammea Jacq., Adonis flamme
 Agrostemma githago L., Nielle des blés
